--- a/BC4400S23/Lecture16/my_univar_regression_handrolled.xlsx
+++ b/BC4400S23/Lecture16/my_univar_regression_handrolled.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400S23/Lecture16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{72DC8D23-117F-4B68-AA43-7DDD18CB9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D561F09-0E31-47DF-86F9-AC5930C81EAF}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{72DC8D23-117F-4B68-AA43-7DDD18CB9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282CF297-5998-44C6-A949-B5A339F9BD6E}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Handrolled calcs" sheetId="2" r:id="rId1"/>
-    <sheet name="Excel reg output" sheetId="3" r:id="rId2"/>
-    <sheet name="Excel reg output charts" sheetId="4" r:id="rId3"/>
+    <sheet name="Excel reg output" sheetId="3" r:id="rId1"/>
+    <sheet name="Handrolled calcs" sheetId="2" r:id="rId2"/>
+    <sheet name="Excel reg output with charts" sheetId="4" r:id="rId3"/>
     <sheet name="Std Errors Theory SW Ch 5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>X</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Upper 95.0%</t>
   </si>
   <si>
-    <t>X Variable 1</t>
-  </si>
-  <si>
     <t>RESIDUAL OUTPUT</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>y^2</t>
   </si>
   <si>
-    <t>R2 = 1 - RSS/TSS</t>
-  </si>
-  <si>
     <t>RSS</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>b1 = covar(X,Y) / var(X)</t>
   </si>
   <si>
-    <t>b1 = xy/x^2 = 19/14</t>
-  </si>
-  <si>
     <t>Coefficients Standard Errors</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>SE(b1) = sqrt(VAR(b1))</t>
   </si>
   <si>
-    <t>VAR(b0) = 1/n*X^2*SER^2 / x^2</t>
-  </si>
-  <si>
     <t>SE(b0) = sqrt(VAR(b0))</t>
   </si>
   <si>
@@ -253,6 +241,24 @@
   </si>
   <si>
     <t>https://wwwedu.github.io/BC4400/Admin/StatsTables.pdf#page=5</t>
+  </si>
+  <si>
+    <t>myIntercept</t>
+  </si>
+  <si>
+    <t>b1 = xy / x^2 = 19/14</t>
+  </si>
+  <si>
+    <t>VAR(b0) = 1/n * X^2 * SER^2 / x^2</t>
+  </si>
+  <si>
+    <t>myX</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>R2 = 1 - RSS / TSS</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,13 +485,19 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,7 +588,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Excel reg output charts'!$C$25:$C$28</c:f>
+              <c:f>'Excel reg output with charts'!$C$25:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -831,7 +843,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Excel reg output charts'!$B$25:$B$28</c:f>
+              <c:f>'Excel reg output with charts'!$B$25:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -960,6 +972,168 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352186</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>70437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>164519</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B7A537-1A61-469E-B3EF-5B91BABBB414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6089598" y="70437"/>
+          <a:ext cx="6298937" cy="2638184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Takaways:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>- Excel (and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> most econometric software) automatically provide information for hypothesis test Ho: b = 0.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>- A strong effect will manifest through small standard errors relative to the regression coefficient; that implies large t Stat values, small P-values, and confidence intervals that do not include 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>- The t stat tells us how many standard errors away from 0 is our estimated coefficient. Typically the 95% critical value is 1.96, however, because we have a small sample size the critical value has balloned to 4.303 standard erros. See the stats table for the relationship between n and critical values.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>- The P-value tells us how much area is left in the tails beyond the observed t-Stat. Another way to interpret it: the P value tells us the probability that the null hypothesis (b = 0) is true. We want a value of 0.05 or smaller.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>135660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>332977</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278EACD8-290F-A121-4C31-4C385C1E21AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6665901" y="3888029"/>
+          <a:ext cx="5891092" cy="1577769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -969,7 +1143,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>319468</xdr:colOff>
+      <xdr:colOff>319469</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>117653</xdr:rowOff>
     </xdr:to>
@@ -1013,7 +1187,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>375028</xdr:colOff>
+      <xdr:colOff>375029</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>16327</xdr:rowOff>
     </xdr:to>
@@ -1057,7 +1231,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>272697</xdr:colOff>
+      <xdr:colOff>272698</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>146260</xdr:rowOff>
     </xdr:to>
@@ -1145,7 +1319,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>126240</xdr:colOff>
+      <xdr:colOff>126241</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>73645</xdr:rowOff>
     </xdr:to>
@@ -1189,7 +1363,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>583165</xdr:colOff>
+      <xdr:colOff>583166</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>165473</xdr:rowOff>
     </xdr:to>
@@ -1233,7 +1407,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>450416</xdr:colOff>
+      <xdr:colOff>450417</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>141662</xdr:rowOff>
     </xdr:to>
@@ -1260,168 +1434,6 @@
         <a:xfrm>
           <a:off x="12329216" y="7133053"/>
           <a:ext cx="4325363" cy="473099"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>454640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>172891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222149</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160404</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B7A537-1A61-469E-B3EF-5B91BABBB414}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8650942" y="358589"/>
-          <a:ext cx="6298938" cy="3182790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Takaways:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>- Excel (and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> most econometric software) automatically provide information for hypothesis test Ho: b = 0.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>- A strong effect will manifest through small standard errors, large t Stat values, small P-values, confidence intervals that do not include 0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>- The t Stat tells us how many standard errors away from 0 is our estimated coefficient. Typically the 95% critical value is 1.96, however, because we have a small sample size the critical value has balloned to 4.303 standard erros. See the stats table for the relationship between n and critical values.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>- The P-value tells us how much area is left in the tails beyond the observed t-Stat. Another way to interpret it: the P value tells us the probability that the null hypothesis (b=0) is true. We want a value of 0.05 or smaller.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>525077</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7592</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>35746</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278EACD8-290F-A121-4C31-4C385C1E21AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8721379" y="3759961"/>
-          <a:ext cx="5891092" cy="1577769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1991,17 +2003,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9334-EAE6-4EF0-B554-B1B13AE9F515}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.3046875" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" customWidth="1"/>
+    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.82375447104791411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.67857142857142871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.51785714285714302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2.4712634131437414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <v>25.785714285714292</v>
+      </c>
+      <c r="D12" s="17">
+        <v>25.785714285714292</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4.222222222222225</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.17624552895208589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>12.21428571428571</v>
+      </c>
+      <c r="D13" s="17">
+        <v>6.107142857142855</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>38</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2.9165694833177569</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.53879346280513962</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.64397845268852227</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-10.977557077472559</v>
+      </c>
+      <c r="G17" s="17">
+        <v>14.120414220329701</v>
+      </c>
+      <c r="H17" s="17">
+        <v>-10.977557077472559</v>
+      </c>
+      <c r="I17" s="17">
+        <v>14.120414220329701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.66047292888953313</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2.0548046676563256</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.17624552895208601</v>
+      </c>
+      <c r="F18" s="18">
+        <v>-1.484642793269316</v>
+      </c>
+      <c r="G18" s="18">
+        <v>4.1989285075550304</v>
+      </c>
+      <c r="H18" s="18">
+        <v>-1.484642793269316</v>
+      </c>
+      <c r="I18" s="18">
+        <v>4.1989285075550304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="27">
+        <f>'Handrolled calcs'!C16</f>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="C19" s="27">
+        <f>'Handrolled calcs'!C28</f>
+        <v>2.9165694833177573</v>
+      </c>
+      <c r="D19" s="27">
+        <f>B17/C17</f>
+        <v>0.53879346280513962</v>
+      </c>
+      <c r="E19" s="28">
+        <f>_xlfn.T.DIST.2T(D19,B13)</f>
+        <v>0.64397845268852227</v>
+      </c>
+      <c r="F19" s="27">
+        <f>B17-E23*C17</f>
+        <v>-10.977557077472559</v>
+      </c>
+      <c r="G19" s="27">
+        <f>B17+C17*E23</f>
+        <v>14.120414220329701</v>
+      </c>
+      <c r="H19" s="27">
+        <f>F19</f>
+        <v>-10.977557077472559</v>
+      </c>
+      <c r="I19" s="27">
+        <f>G19</f>
+        <v>14.120414220329701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="27">
+        <f>'Handrolled calcs'!C14</f>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="C20" s="27">
+        <f>'Handrolled calcs'!C26</f>
+        <v>0.66047292888953324</v>
+      </c>
+      <c r="D20" s="27">
+        <f>B18/C18</f>
+        <v>2.0548046676563256</v>
+      </c>
+      <c r="E20" s="28">
+        <f>_xlfn.T.DIST.2T(D20,B13)</f>
+        <v>0.17624552895208601</v>
+      </c>
+      <c r="F20" s="27">
+        <f>B18-E23*C18</f>
+        <v>-1.484642793269316</v>
+      </c>
+      <c r="G20" s="27">
+        <f>B18+C18*E23</f>
+        <v>4.1989285075550304</v>
+      </c>
+      <c r="H20" s="27">
+        <f>F20</f>
+        <v>-1.484642793269316</v>
+      </c>
+      <c r="I20" s="27">
+        <f>G20</f>
+        <v>4.1989285075550304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="87.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="32">
+        <f>TINV(0.05,B8-2)</f>
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="F23" s="34">
+        <v>4.3</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="17">
+        <v>2.9285714285714284</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1.0714285714285716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="17">
+        <v>7</v>
+      </c>
+      <c r="C26" s="17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="17">
+        <v>8.3571428571428577</v>
+      </c>
+      <c r="C27" s="17">
+        <v>-1.3571428571428577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="18">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2.2857142857142865</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G23" r:id="rId1" location="page=5" xr:uid="{92C7EB1C-9E8A-4741-9DDE-CF2CDD49F2CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E866E68-70AA-48CD-BC1B-6FC4AADFB492}">
   <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3828125" customWidth="1"/>
-    <col min="2" max="2" width="27.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.61328125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.3828125" style="1" customWidth="1"/>
@@ -2016,7 +2434,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -2025,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>2</v>
@@ -2037,25 +2455,25 @@
         <v>3</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
@@ -2372,13 +2790,13 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
@@ -2396,19 +2814,19 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2423,7 +2841,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
         <f>COUNT(C3:C6)</f>
@@ -2446,10 +2864,10 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
@@ -2478,7 +2896,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="13" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C14" s="16">
         <f>SUM(G3:G6)/SUM(H3:H6)</f>
@@ -2504,8 +2922,8 @@
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="7" t="s">
-        <v>58</v>
+      <c r="B15" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="14">
         <f>_xlfn.COVARIANCE.P(C3:C6,D3:D6)/_xlfn.VAR.P(D3:D6)</f>
@@ -2532,7 +2950,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="16">
         <f>C9-C14*D9</f>
@@ -2575,7 +2993,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="15"/>
@@ -2593,7 +3011,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="16">
         <f>M8/N8</f>
@@ -2620,7 +3038,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="13" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C20" s="14">
         <f>1-O8/N8</f>
@@ -2647,7 +3065,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="14">
         <f>SQRT(O8/(C12-2))</f>
@@ -2674,13 +3092,15 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="14">
         <f>SQRT(O8/C12)</f>
         <v>1.7474471175321529</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="E22" s="15"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -2711,7 +3131,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -2729,7 +3149,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11">
         <f>C21^2/H8</f>
@@ -2750,7 +3170,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11">
         <f>SQRT(C25)</f>
@@ -2777,7 +3197,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C27" s="11">
         <f>1/C12*L8*C21^2/H8</f>
@@ -2798,7 +3218,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" s="11">
         <f>SQRT(C27)</f>
@@ -2830,381 +3250,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9334-EAE6-4EF0-B554-B1B13AE9F515}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.3046875" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.82375447104791411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.67857142857142871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.51785714285714302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17">
-        <v>2.4712634131437414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17">
-        <v>25.785714285714292</v>
-      </c>
-      <c r="D12" s="17">
-        <v>25.785714285714292</v>
-      </c>
-      <c r="E12" s="17">
-        <v>4.222222222222225</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.17624552895208589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17">
-        <v>12.21428571428571</v>
-      </c>
-      <c r="D13" s="17">
-        <v>6.107142857142855</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="18">
-        <v>38</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="17">
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="C17" s="17">
-        <v>2.9165694833177569</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.53879346280513962</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.64397845268852227</v>
-      </c>
-      <c r="F17" s="17">
-        <v>-10.977557077472559</v>
-      </c>
-      <c r="G17" s="17">
-        <v>14.120414220329701</v>
-      </c>
-      <c r="H17" s="17">
-        <v>-10.977557077472559</v>
-      </c>
-      <c r="I17" s="17">
-        <v>14.120414220329701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1.3571428571428572</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0.66047292888953313</v>
-      </c>
-      <c r="D18" s="18">
-        <v>2.0548046676563256</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.17624552895208601</v>
-      </c>
-      <c r="F18" s="18">
-        <v>-1.484642793269316</v>
-      </c>
-      <c r="G18" s="18">
-        <v>4.1989285075550304</v>
-      </c>
-      <c r="H18" s="18">
-        <v>-1.484642793269316</v>
-      </c>
-      <c r="I18" s="18">
-        <v>4.1989285075550304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D19" s="27">
-        <f>B17/C17</f>
-        <v>0.53879346280513962</v>
-      </c>
-      <c r="E19" s="28">
-        <f>_xlfn.T.DIST.2T(D19,B13)</f>
-        <v>0.64397845268852227</v>
-      </c>
-      <c r="F19" s="27">
-        <f>B17-E23*C17</f>
-        <v>-10.977557077472559</v>
-      </c>
-      <c r="G19" s="27">
-        <f>B17+C17*E23</f>
-        <v>14.120414220329701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D20" s="27">
-        <f>B18/C18</f>
-        <v>2.0548046676563256</v>
-      </c>
-      <c r="E20" s="28">
-        <f>_xlfn.T.DIST.2T(D20,B13)</f>
-        <v>0.17624552895208601</v>
-      </c>
-      <c r="F20" s="27">
-        <f>B18-E23*C18</f>
-        <v>-1.484642793269316</v>
-      </c>
-      <c r="G20" s="27">
-        <f>B18+C18*E23</f>
-        <v>4.1989285075550304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="48.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="33">
-        <f>TINV(0.05,B8-2)</f>
-        <v>4.3026527297494637</v>
-      </c>
-      <c r="F23" s="33">
-        <v>4.3</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="17">
-        <v>2.9285714285714284</v>
-      </c>
-      <c r="C25" s="17">
-        <v>1.0714285714285716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" s="17">
-        <v>7</v>
-      </c>
-      <c r="C26" s="17">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" s="17">
-        <v>8.3571428571428577</v>
-      </c>
-      <c r="C27" s="17">
-        <v>-1.3571428571428577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="B28" s="18">
-        <v>9.7142857142857135</v>
-      </c>
-      <c r="C28" s="18">
-        <v>2.2857142857142865</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" location="page=5" xr:uid="{92C7EB1C-9E8A-4741-9DDE-CF2CDD49F2CB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEBE078-8466-4B07-94DB-F6F1F7BD8080}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3429,19 +3481,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="C24" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
